--- a/Test Cases Собаседник.xlsx
+++ b/Test Cases Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="210">
   <si>
     <t>Test case id</t>
   </si>
@@ -118,7 +118,7 @@
     <t>NAV - 003</t>
   </si>
   <si>
-    <t>Переход на страницу "Блог Джесси"</t>
+    <t>Переход на страницу "Блог Джесси" по нажатию на ссылку</t>
   </si>
   <si>
     <t>Проверить, что при клике на ссылку "Блог Джесси" в панели навигации происходит переход на страницу "Блог Джесси"</t>
@@ -137,7 +137,7 @@
     <t>NAV - 004</t>
   </si>
   <si>
-    <t>Переход на страницу "Магазин"</t>
+    <t>Переход на страницу "Магазин" по нажатию на ссылку</t>
   </si>
   <si>
     <t>Проверить, что при клике на ссылку "Магазин" в панели навигации происходит переход на страницу "Магазин"</t>
@@ -227,7 +227,7 @@
     <t>NAV - 009</t>
   </si>
   <si>
-    <t>Переход на страницу "Советы"</t>
+    <t>Переход на страницу "Советы" по нажатию на ссылку</t>
   </si>
   <si>
     <t>Проверить, что при клике на ссылку "Советы" в панели навигации происходит переход на страницу "Советы"</t>
@@ -249,7 +249,7 @@
     <t>NAV - 010</t>
   </si>
   <si>
-    <t>Переход на страницу "Статьи"</t>
+    <t>Переход на страницу "Статьи" по нажатию на ссылку</t>
   </si>
   <si>
     <t>Проверить, что при клике на ссылку "Статьи" в панели навигации происходит переход на страницу "Статьи"</t>
@@ -277,7 +277,7 @@
     <t>NAV - 011</t>
   </si>
   <si>
-    <t>Переход на страницу "Проверь свой уровень"</t>
+    <t>Переход на страницу "Проверь свой уровень" по нажатию на ссылку</t>
   </si>
   <si>
     <t>Проверить, что при клике на ссылку "Проверь свой уровень" в панели навигации происходит переход на страницу "Проверь свой уровень"</t>
@@ -337,6 +337,369 @@
   </si>
   <si>
     <t>FOOT - 005</t>
+  </si>
+  <si>
+    <t>MAIN - 001</t>
+  </si>
+  <si>
+    <t>Переход на страницу "О нас", по нажатию кнопки "Подробнее о питомнике"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на кнопку "Подробнее о питомнике", происходит переход на страницу "О нас"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается</t>
+  </si>
+  <si>
+    <t>Главная / Подробнее о питомнике</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что кнопка "Подробнее о питомнике" отображается на главной
+2. Нажать на кнопку "Подробнее о питомнике"</t>
+  </si>
+  <si>
+    <t>MAIN - 002</t>
+  </si>
+  <si>
+    <t>Переход в Блог ("Лайфхак - как получить от жизни всё!") по нажатию на фотокарточку</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на фотокарточку, происходит переход в блог "Лайфхак - как получить от жизни всё!"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается
+3. Блоки с блогами отображаются</t>
+  </si>
+  <si>
+    <t>Главная / Блог (Лайфхак)</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что блог "Лайфхак - как получить от жизни всё!" отображается
+2. Нажать на фотокарточку блога</t>
+  </si>
+  <si>
+    <t>1. Открывается страница блога "Лайфхак - как получить от жизни всё!"</t>
+  </si>
+  <si>
+    <t>1. После нажатия на фотокарточку ничего не происходит</t>
+  </si>
+  <si>
+    <t>Уточнить у заказчика или команды, должна ли фотокарточка вести в блог</t>
+  </si>
+  <si>
+    <t>MAIN - 003</t>
+  </si>
+  <si>
+    <t>Переход в Блог ("Лайфхак - как получить от жизни всё!") по нажатию на заголовок</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на заголовок "Лайфхак - как получить от жизни всё!", происходит переход в блог "Лайфхак - как получить от жизни всё!"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что блог "Лайфхак - как получить от жизни всё!" отображается
+2. Нажать на заголовок "Лайфхак - как получить от жизни всё!" блога</t>
+  </si>
+  <si>
+    <t>1. После нажатия на заголовок блога ничего не происходит, хотя заголовки других блогов осуществляют переход</t>
+  </si>
+  <si>
+    <t>Уточнить у команды, является ли это багом, так как заголовки других блогов ведут в соответствующие блоги</t>
+  </si>
+  <si>
+    <t>MAIN - 004</t>
+  </si>
+  <si>
+    <t>Переход в Блог ("Дог Блог") по нажатию на фотокарточку</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на фотокарточку, происходит переход в блог "Дог Блог"</t>
+  </si>
+  <si>
+    <t>Главная / Блог (Дог Блог)</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что блог "Дог Блог" отображается
+2. Нажать на фотокарточку блога</t>
+  </si>
+  <si>
+    <t>1. Открывается страница блога "Дог Блог"</t>
+  </si>
+  <si>
+    <t>MAIN - 005</t>
+  </si>
+  <si>
+    <t>Переход в Блог ("Дог Блог") по нажатию на заголовок</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на заголовок "Дог блог", происходит переход в блог "Дог Блог"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что блог "Дог Блог" отображается
+2. Нажать на заголовок "Дог Блог" блога</t>
+  </si>
+  <si>
+    <t>1. Открывается страница "Дог Блог"</t>
+  </si>
+  <si>
+    <t>1. После нажатия на заголовок открывается страница "Блог Джесси"</t>
+  </si>
+  <si>
+    <t>Уточнить у команды, является ли это багом, или переход на страницу "Блог Джесси" является ожидаемым результатом</t>
+  </si>
+  <si>
+    <t>MAIN - 006</t>
+  </si>
+  <si>
+    <t>Переход в пост "В конце релиза" по нажатию на название</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на название поста "В конце релиза", открывается соответствующая страница</t>
+  </si>
+  <si>
+    <t>Главная / Блог (В конце релиза)</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что пост "В конце релиза" отображается в списке блогов
+2. Нажать на название поста "В конце релиза"</t>
+  </si>
+  <si>
+    <t>1. Открывается пост "В конце релиза"</t>
+  </si>
+  <si>
+    <t>1.  Страница "В конце релиза" успешно открылась</t>
+  </si>
+  <si>
+    <t>MAIN - 007</t>
+  </si>
+  <si>
+    <t>Аналогичный блок с предыдущим</t>
+  </si>
+  <si>
+    <t>MAIN - 008</t>
+  </si>
+  <si>
+    <t>MAIN - 009</t>
+  </si>
+  <si>
+    <t>1. Страница "В конце релиза" успешно открылась</t>
+  </si>
+  <si>
+    <t>MAIN - 010</t>
+  </si>
+  <si>
+    <t>Перелистываение карусели изображений нажатием кнопки "Вправо"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии кнопки "Вправо", карусель перелистывает изображение вправо</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается
+3. Карусель с изображениями отображается</t>
+  </si>
+  <si>
+    <t>Главная / Карусель</t>
+  </si>
+  <si>
+    <t>1. Нажаться на кнопку "Вправо"</t>
+  </si>
+  <si>
+    <t>1. Карусель перелистывает одно изображение вправо, показывая следующее изображение</t>
+  </si>
+  <si>
+    <t>1. После нажатия кнопки "Вправо" изображение перелистывается вправо</t>
+  </si>
+  <si>
+    <t>MAIN - 011</t>
+  </si>
+  <si>
+    <t>Перелистываение карусели изображений нажатием кнопки "Влево"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии кнопки "Влево", карусель перелистывает изображение вправо</t>
+  </si>
+  <si>
+    <t>1. Нажаться на кнопку "Влево"</t>
+  </si>
+  <si>
+    <t>1. Карусель перелистывает одно изображение влево, показывая предыдущее изображение</t>
+  </si>
+  <si>
+    <t>1. После нажатия кнопки "Влево" изображение перелистывается влево</t>
+  </si>
+  <si>
+    <t>MAIN - 012</t>
+  </si>
+  <si>
+    <t>Переключение карусели изображений с помощью Drag&amp;Drop</t>
+  </si>
+  <si>
+    <t>Проверить, что при зажатии курсором карусели, происходит перелистывание изображений в направлении курсора</t>
+  </si>
+  <si>
+    <t>1. Зажать курсор на области карусели или на изображении карусели
+2. Переместить курсор влево
+3. Переместить курсор вправо</t>
+  </si>
+  <si>
+    <t>1. Карусель двигается влево, показывая следующее изображение
+2. Карусель двигается вправо, возвращая изображение назад</t>
+  </si>
+  <si>
+    <t>MAIN - 013</t>
+  </si>
+  <si>
+    <t>Корректное отображение всех изображений карусели</t>
+  </si>
+  <si>
+    <t>Проверить, что все изображения в карусели, отображаются корректно</t>
+  </si>
+  <si>
+    <t>1. Нажимать кнопку "Вправо", пока не пройден полный круг изображений, проверяя, что каждое изображение отображается корректно
+2. Нажимать кнопку "Влево", пока не пройден полный круг изображений, проверяя, что каждое изображение отображается корректно</t>
+  </si>
+  <si>
+    <t>1. Все изображения в карусели должны корректно отображаться при пролистывании вправо
+2. Все изображения в карусели должны корректно отображаться при пролистывании влево</t>
+  </si>
+  <si>
+    <t>1. Одно из изображений не отображается
+2. Одно из изображений не отображается</t>
+  </si>
+  <si>
+    <t>MAIN - 014</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Блог Джесси", по нажатию на ссылку "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на ссылку "Блог Джесси, инженера по тестированию лапками", происходит переход на страницу "Блог Джесси"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается
+3. Ссылка на блог отображается</t>
+  </si>
+  <si>
+    <t>Главная / "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что ссылка "Блог Джесси, инженера по тестированию лапками" отображается на главной
+2. Нажать на ссылку "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>1. Открывается страница  "Блог Джесси"</t>
+  </si>
+  <si>
+    <t>1. При нажатии на ссылку, открывается страница "Блог Джесси"</t>
+  </si>
+  <si>
+    <t>MAIN - 015</t>
+  </si>
+  <si>
+    <t>Кликабельноть cписка блогов "Блог Джесси, инженера по тестированию лапками"</t>
+  </si>
+  <si>
+    <t>Проверить, что список блогов "Блог Джесси, инженера по тестированию лапками", является статическим</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается
+3. Список блогов отображается</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что список блогов "Блог Джесси, инженера по тестированию лапками" отображается на главной
+2. Нажать на заголовки элемента списка:
+- "Давно просил домашнее животное"
+- IT-марафон "Северные болота"
+- Кубик Рубика для прокачки софт-киллов
+- Решил заглянуть в правила дорожного движения
+- Памятник собаке-тестировщице в Вологде
+- В конце релиза</t>
+  </si>
+  <si>
+    <t>1. При нажатии на заголовки списка блогов, не открываются страницы с конкретными блогами</t>
+  </si>
+  <si>
+    <t>1. При нажатии на заголовки списка блогов, страницы с блогами не открываются</t>
+  </si>
+  <si>
+    <t>MAIN - 016</t>
+  </si>
+  <si>
+    <t>Корректность названий и описания блогов</t>
+  </si>
+  <si>
+    <t>Проверить, что в названии и описании блогов нет пунктационных и орфографических ошибок</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что список блогов "Блог Джесси, инженера по тестированию лапками" отображается на главной
+2. Проверить заголовки и описание блогов на пунктационные и орфографические ошибки</t>
+  </si>
+  <si>
+    <t>1. Орфографических и пунктационных ошибок в названии и описании блогов нет</t>
+  </si>
+  <si>
+    <t>1. В названии блога "Кубик рубика для прокачки сотф-киллов" есть пунктационная ошибка</t>
+  </si>
+  <si>
+    <t>MAIN - 017</t>
+  </si>
+  <si>
+    <t>Переход на страницу "Блог Джесси", по нажатию на ссылку "See All News"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на ссылку "See All News", происходит переход на страницу "Блог Джесси"</t>
+  </si>
+  <si>
+    <t>Главная / See All News</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что ссылка "See All News" отображается на главной
+2. Нажать на ссылку "See All News"</t>
+  </si>
+  <si>
+    <t>MAIN - 018</t>
+  </si>
+  <si>
+    <t>Читаемость блока "Помощь начинающим тестировщика"</t>
+  </si>
+  <si>
+    <t>Проверить, что текст в блоке "Помощь начинающим тестировщика" читаем</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Главная страница отображается
+3. Блок "Помощь начинающим тестироващикам отображается"</t>
+  </si>
+  <si>
+    <t>Главная / Помощь начинающим тестироващикам</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что блок "Помощь начинающим тестироващикам" отображается на главной</t>
+  </si>
+  <si>
+    <t>1. Текст блока "Помощь начинающим тестироващикам отображается" читаем и не сливается с фоном изображения</t>
+  </si>
+  <si>
+    <t>1. Текст блока плохо читаем и сливается с фоном изображения</t>
+  </si>
+  <si>
+    <t>ABUS - 001</t>
+  </si>
+  <si>
+    <t>О нас /</t>
+  </si>
+  <si>
+    <t>JESB - 001</t>
+  </si>
+  <si>
+    <t>Блог Джесси /</t>
   </si>
 </sst>
 </file>
@@ -650,14 +1013,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.88"/>
-    <col customWidth="1" min="2" max="2" width="23.88"/>
+    <col customWidth="1" min="2" max="2" width="28.13"/>
     <col customWidth="1" min="3" max="3" width="34.5"/>
     <col customWidth="1" min="4" max="4" width="29.25"/>
     <col customWidth="1" min="7" max="7" width="23.38"/>
-    <col customWidth="1" min="8" max="8" width="30.88"/>
+    <col customWidth="1" min="8" max="8" width="37.0"/>
     <col customWidth="1" min="10" max="10" width="28.75"/>
     <col customWidth="1" min="11" max="11" width="30.88"/>
     <col customWidth="1" min="13" max="13" width="16.63"/>
+    <col customWidth="1" min="14" max="14" width="28.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.0" customHeight="1">
@@ -1148,7 +1512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" ht="90.0" customHeight="1">
+    <row r="13" ht="76.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>88</v>
       </c>
@@ -1204,11 +1568,11 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" ht="25.5" customHeight="1">
+    <row r="15" ht="54.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
@@ -1560,39 +1924,1189 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" s="5"/>
+    <row r="29" ht="18.0" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" ht="71.25" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" ht="69.0" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" ht="70.5" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" ht="65.25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" ht="63.0" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="56.25" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" ht="61.5" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" ht="57.0" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" ht="57.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" ht="65.25" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" ht="51.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" ht="72.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" ht="96.0" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" ht="92.25" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" ht="169.5" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" ht="114.0" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" ht="115.5" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" ht="72.75" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" ht="18.0" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" ht="29.25" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" ht="18.0" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" ht="31.5" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="5"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E29">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E28 E30:E47 E49:E55 E57:E65">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M28 L30:M47 L49:M55 L57:M65">
       <formula1>"Pass,Fail,Not run,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F29">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F28 F30:F47 F49:F55 F57:F65">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases Собаседник.xlsx
+++ b/Test Cases Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="263">
   <si>
     <t>Test case id</t>
   </si>
@@ -645,7 +645,7 @@
     <t>1. Орфографических и пунктационных ошибок в названии и описании блогов нет</t>
   </si>
   <si>
-    <t>1. В названии блога "Кубик рубика для прокачки сотф-киллов" есть пунктационная ошибка</t>
+    <t>1. В названии блога "Кубик рубика для прокачки сотф-киллов" есть пунктационная ошибка ("софт-киллов", вместо "сфот-скиллов")</t>
   </si>
   <si>
     <t>MAIN - 017</t>
@@ -693,7 +693,219 @@
     <t>ABUS - 001</t>
   </si>
   <si>
-    <t>О нас /</t>
+    <t>Соответствие названия вкладки содержимому страницы</t>
+  </si>
+  <si>
+    <t>Проверить, что название вкладки соответствует содержанию страницы</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "Собаседник"
+2. Перейти на страницу "О нас"</t>
+  </si>
+  <si>
+    <t>О нас / Содержимое страницы</t>
+  </si>
+  <si>
+    <t>1. Проверить название вкладки в браузере
+2. Проверить заголовок страницы
+3. Проверить основное содержание страницы</t>
+  </si>
+  <si>
+    <t>1. Название вкладки в браузере совпадает с содержимым страницы</t>
+  </si>
+  <si>
+    <t>Название вкладки "Говорящие кошки" не соответствует содержимому (форма заказа собаки)</t>
+  </si>
+  <si>
+    <t>ABUS - 002</t>
+  </si>
+  <si>
+    <t>Корректное отображение названия кнопки "Отправить форму"</t>
+  </si>
+  <si>
+    <t>Проверить, что название кнопки отображается корректно во всех состояниях (обычное, наведение, нажатие, уход курсора)</t>
+  </si>
+  <si>
+    <t>О нас / Форма бронирования питомца</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Проверить отображение текста кнопки "Отправить форму" в следующих состояниях:
+- В обычном состоянии
+- При наведении курсора
+- При нажатии
+- При убирании курсора с кнопки</t>
+  </si>
+  <si>
+    <t>1. Текст кнопки корректно отображается во всех состояниях</t>
+  </si>
+  <si>
+    <t>1. При убирании курсора текст кнопки исчезает</t>
+  </si>
+  <si>
+    <t>ABUS - 003</t>
+  </si>
+  <si>
+    <t>Читаемость текста, для полей ввода формы "Форма бронирования питомца"</t>
+  </si>
+  <si>
+    <t>Проверить, что текст для полей ввода формы, чекто отображается, хорошо читаем и не сливается с фоном</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Заполнить следующие поля данными:
+- поле "Имя" (текст: "Ivan")
+- поле "Фамилия" (текст: "Ivanov")
+- поле "Email" (текст: "test@example.com")
+- поле "Прописка" (текст: "Test")
+3. Убедиться, что текст корректно отображается, хорошо читаем и не сливается с фоном</t>
+  </si>
+  <si>
+    <t>Имя: Ivan
+Фамилия: Ivanov
+Email: test@example.com
+Прописка: Test</t>
+  </si>
+  <si>
+    <t>1. Введенный текст отображается четко
+2.Текст хорошо читаем, не сливается с фоном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. При вводе тестовых данных, текст четко отображается во всех полях
+2. Текст плохо читаем, сливается с фоном </t>
+  </si>
+  <si>
+    <t>Уточнить, есть ли возможность изменить цвет текста для полей ввода, для улучшения читаемости</t>
+  </si>
+  <si>
+    <t>ABUS - 004</t>
+  </si>
+  <si>
+    <t>Выравнивание названий разделов формы</t>
+  </si>
+  <si>
+    <t>Проверить, что названия разделов выровнены по вертикали и расположены друг под другом</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Убедиться, что все названия разделов выровнены и расположены друг под другом</t>
+  </si>
+  <si>
+    <t>1. Названия разделов выровнены и расположены друг под другом</t>
+  </si>
+  <si>
+    <t>1. Название разделов не выровнены по вертикали и не находятся друг под другом
+(например, раздел "Желаемый пол щенка" имеет отступ слева)</t>
+  </si>
+  <si>
+    <t>ABUS - 005</t>
+  </si>
+  <si>
+    <t>Размер и жирность шрифта названий разделов</t>
+  </si>
+  <si>
+    <t>Проверить, что все названия разделов имеют одинаковый размер шрифта и одинаковую жирность</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Проверить, что все названия разделов имеют одинаковый размер шрифта и одинаковую жирность.</t>
+  </si>
+  <si>
+    <t>1. Названия разделов имеют одинаковый размер шрифта и одинаковую жирность</t>
+  </si>
+  <si>
+    <t>1. Названия разделов имеют одинаковый размер шрифта, но разную жирность
+(например:
+"Имя заказчика" - Жирный,
+"Email" - Обычный,
+" Желаемый пол щенка" - Жирный,
+Остальные - Обычный
+)</t>
+  </si>
+  <si>
+    <t>Привести названия разделов, к единобразию, либо все названия жирный шрифт, либо все названия обычный шрифт</t>
+  </si>
+  <si>
+    <t>ABUS - 006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Корректность и единообразие текста названий разделов</t>
+  </si>
+  <si>
+    <t>Проверить, что текст названий разделов корректен и в одном стиле (например, русские слова вместо англоязычных)</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Убедиться, что все названия разделов написаны корректно и в одном стиле</t>
+  </si>
+  <si>
+    <t>1. Все названия разделов написаны без ошибок, в одном стиле (одинаковый язык, единая структура и логика).</t>
+  </si>
+  <si>
+    <t>1. Названия разделов содержат ошибки или оформлены не единообразно,
+(Например: 
+- Название раздела 'Имя заказчика' не соответствует его полям ('Имя' и 'Фамилия'), следует переименовать в 'Имя и Фамилия заказчика',
+- Название 'Размер собаки, которую вы планируете купить' слишком длинное, оптимальное сокращение: 'Размер собаки',
+- Название "Ваш адрес прописки" слишком длинное, оптимальное сокращение: 'Адрес прописки',
+- Раздел 'Email' написан на английском, тогда как остальные названия на русском. Следует привести к единому языку
+)</t>
+  </si>
+  <si>
+    <t>ABUS - 007</t>
+  </si>
+  <si>
+    <t>Отступы и выравнивание элементов формы</t>
+  </si>
+  <si>
+    <t>Проверить правильность отступов и выравнивания элементов формы (например, радиокнопки и чекбоксы)</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Проверить, что отступы и выравнивание элементов формы корректны</t>
+  </si>
+  <si>
+    <t>1. Все отступы и выравнивания элементов формы соответствуют стандартам</t>
+  </si>
+  <si>
+    <t>1. Отсутствуют отступы между радиокнопками и значениями:
+- Раздел "Размер собаки, которую вы планируете купить"
+2. Отсутствует отступы между чек-боксами и значениями:
+- Раздел "Размер собаки, которую вы планируете купить"
+- Раздел "Языки, на которых должна говорить собака"</t>
+  </si>
+  <si>
+    <t>ABUS - 008</t>
+  </si>
+  <si>
+    <t>Работоспособность формы, при корректно заполненных данных</t>
+  </si>
+  <si>
+    <t>Проверить работоспобоснотсть формы, при заполнении всех полей формы корректными данными</t>
+  </si>
+  <si>
+    <t>1. Убедиться, что форма бронирования питомца отображается
+2. Заполнить поле "Имя" корректными данными
+3. Заполнить поле "Фамилия" корректными данными
+4. Заполнить поле "Email" корректным email
+5. Выбрать радиокнопку "Кобель"
+6. Заполнить поле "Телефон" корректным значением их 12 символов
+7. Заполнить поле "Когда хотите забрать?" корректной датой, не раньше сегодняшней датой
+8. Выбрать чек-бокс "Маленькая собачка"
+9. Выбрать чек-бокс "Английский"
+10. Нажать кнопку "Выбрать файл", прикрепить корректное фото паспорта
+11. Заполнить текстовую область "Прописка" корректным значением
+11. Заполнить поле "Выбирите город" корректным значением
+12. Нажать кнопку "Подтвердить отправку"</t>
+  </si>
+  <si>
+    <t>1. Форма отправлена
+2. Появилось сообщение об успешном заказе</t>
+  </si>
+  <si>
+    <t>ABUS - 009</t>
+  </si>
+  <si>
+    <t>ABUS - 010</t>
   </si>
   <si>
     <t>JESB - 001</t>
@@ -1018,6 +1230,7 @@
     <col customWidth="1" min="4" max="4" width="29.25"/>
     <col customWidth="1" min="7" max="7" width="23.38"/>
     <col customWidth="1" min="8" max="8" width="37.0"/>
+    <col customWidth="1" min="9" max="9" width="20.5"/>
     <col customWidth="1" min="10" max="10" width="28.75"/>
     <col customWidth="1" min="11" max="11" width="30.88"/>
     <col customWidth="1" min="13" max="13" width="16.63"/>
@@ -2690,13 +2903,19 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" ht="29.25" customHeight="1">
+    <row r="49" ht="60.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>18</v>
       </c>
@@ -2704,183 +2923,313 @@
         <v>19</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H49" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="J49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="L49" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+    <row r="50" ht="114.0" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E50" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="J50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="L50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+    <row r="51" ht="165.0" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E51" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="G51" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="L51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" ht="83.25" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="J52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="L52" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" ht="132.0" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E53" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="J53" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="L53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" ht="255.75" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="G54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="J54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="L54" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N54" s="5"/>
     </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+    <row r="55" ht="154.5" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="E55" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="G55" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="J55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="L55" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" ht="18.0" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" ht="31.5" customHeight="1">
+    <row r="56" ht="293.25" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57">
       <c r="A57" s="4" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2891,9 +3240,7 @@
       <c r="F57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -2907,7 +3254,9 @@
       <c r="N57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
+      <c r="A58" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2930,32 +3279,26 @@
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" s="5"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5"/>
+    <row r="59" ht="18.0" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" ht="31.5" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2965,7 +3308,9 @@
       <c r="F60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -3098,15 +3443,87 @@
       </c>
       <c r="N65" s="5"/>
     </row>
+    <row r="66">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="5"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E28 E30:E47 E49:E55 E57:E65">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E28 E30:E47 E49:E58 E60:E68">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M28 L30:M47 L49:M55 L57:M65">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M28 L30:M47 L49:M58 L60:M68">
       <formula1>"Pass,Fail,Not run,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F28 F30:F47 F49:F55 F57:F65">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F28 F30:F47 F49:F58 F60:F68">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases Собаседник.xlsx
+++ b/Test Cases Собаседник.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="264">
   <si>
     <t>Test case id</t>
   </si>
@@ -888,24 +888,44 @@
 3. Заполнить поле "Фамилия" корректными данными
 4. Заполнить поле "Email" корректным email
 5. Выбрать радиокнопку "Кобель"
-6. Заполнить поле "Телефон" корректным значением их 12 символов
+6. Заполнить поле "Телефон" корректным значением (12 символов)
 7. Заполнить поле "Когда хотите забрать?" корректной датой, не раньше сегодняшней датой
-8. Выбрать чек-бокс "Маленькая собачка"
-9. Выбрать чек-бокс "Английский"
-10. Нажать кнопку "Выбрать файл", прикрепить корректное фото паспорта
-11. Заполнить текстовую область "Прописка" корректным значением
-11. Заполнить поле "Выбирите город" корректным значением
-12. Нажать кнопку "Подтвердить отправку"</t>
+8. Заполнить поле "Особые пожелания" корректным значением
+9. Выбрать чек-бокс "Маленькая собачка"
+10. Выбрать чек-бокс "Английский"
+11. Нажать кнопку "Выбрать файл", прикрепить корректное фото паспорта
+12. Заполнить текстовую область "Прописка" корректным значением
+13. Заполнить поле "Выберите город" корректным значением
+13. Нажать кнопку "Подтвердить отправку"</t>
+  </si>
+  <si>
+    <t>Имя: Petr
+Фамилия: Petrov
+Email: petrov@mail.com
+Радиокнопка: "Кобель"
+Телефон: +791314159 (поле принимает максимум 10 символов)
+Когда хотите забрать: 01.03.25 (placeholder является значением по умолчанию)
+Особые пожелания: Поле не активно, нет возможности вписать значение
+Чек-бокс: Маленькая собачка
+Чек-бокс: Английский
+Выбрать файл: Прикрепить фото паспорта
+Прописка: ул.Тестовая д -10, кв - 20
+Выберите город: Поле не активно, нет возможности выбрать город</t>
   </si>
   <si>
     <t>1. Форма отправлена
 2. Появилось сообщение об успешном заказе</t>
   </si>
   <si>
-    <t>ABUS - 009</t>
-  </si>
-  <si>
-    <t>ABUS - 010</t>
+    <t>1. Форма не отправляется, выявлены следующие проблемы:
+- Поле "Телефон" принимает только 10 символов вместо 12
+- Поле "Когда хотите забрать?" – placeholder является значением по умолчанию и его приходится удалять вручную
+- Поле "Особые пожелания" – неактивно, невозможно ввести данные
+- Поле "Выберите город" – неактивно, невозможно выбрать город
+- Поле "Прописка" – не имеет ограничения на сворачивание и разворачивание</t>
+  </si>
+  <si>
+    <t>Форма не работоспособна, требуется исправление блокирующих дефектов перед дальнейшим тестированием</t>
   </si>
   <si>
     <t>JESB - 001</t>
@@ -1230,11 +1250,11 @@
     <col customWidth="1" min="4" max="4" width="29.25"/>
     <col customWidth="1" min="7" max="7" width="23.38"/>
     <col customWidth="1" min="8" max="8" width="37.0"/>
-    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col customWidth="1" min="9" max="9" width="34.5"/>
     <col customWidth="1" min="10" max="10" width="28.75"/>
     <col customWidth="1" min="11" max="11" width="30.88"/>
     <col customWidth="1" min="13" max="13" width="16.63"/>
-    <col customWidth="1" min="14" max="14" width="28.75"/>
+    <col customWidth="1" min="14" max="14" width="45.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="54.0" customHeight="1">
@@ -3189,7 +3209,7 @@
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" ht="293.25" customHeight="1">
+    <row r="56" ht="312.0" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>254</v>
       </c>
@@ -3214,48 +3234,44 @@
       <c r="H56" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="J56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="K56" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="L56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57" s="5"/>
-    </row>
-    <row r="58">
+        <v>71</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" ht="18.0" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" ht="31.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -3266,7 +3282,9 @@
       <c r="F58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="5"/>
+      <c r="G58" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -3279,26 +3297,32 @@
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" ht="18.0" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" ht="31.5" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>261</v>
-      </c>
+    <row r="59">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -3308,9 +3332,7 @@
       <c r="F60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -3467,63 +3489,15 @@
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N67" s="5"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="5"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E28 E30:E47 E49:E58 E60:E68">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E13 E15:E28 E30:E47 E49:E56 E58:E66">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M28 L30:M47 L49:M58 L60:M68">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:M13 L15:M28 L30:M47 L49:M56 L58:M66">
       <formula1>"Pass,Fail,Not run,Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F28 F30:F47 F49:F58 F60:F68">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F13 F15:F28 F30:F47 F49:F56 F58:F66">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases Собаседник.xlsx
+++ b/Test Cases Собаседник.xlsx
@@ -645,7 +645,7 @@
     <t>1. Орфографических и пунктационных ошибок в названии и описании блогов нет</t>
   </si>
   <si>
-    <t>1. В названии блога "Кубик рубика для прокачки сотф-киллов" есть пунктационная ошибка ("софт-киллов", вместо "сфот-скиллов")</t>
+    <t>1. В названии блога "Кубик рубика для прокачки софт-киллов" есть пунктационная ошибка ("софт-киллов", вместо "сфот-скиллов")</t>
   </si>
   <si>
     <t>MAIN - 017</t>
@@ -808,7 +808,7 @@
   </si>
   <si>
     <t>1. Убедиться, что форма бронирования питомца отображается
-2. Проверить, что все названия разделов имеют одинаковый размер шрифта и одинаковую жирность.</t>
+2. Проверить, что все названия разделов имеют одинаковый размер шрифта и одинаковую жирность</t>
   </si>
   <si>
     <t>1. Названия разделов имеют одинаковый размер шрифта и одинаковую жирность</t>
